--- a/análisis/Requerimientos/Funcionales/RF05_Realizar check-in y check-out de la estadia del cliente..xlsx
+++ b/análisis/Requerimientos/Funcionales/RF05_Realizar check-in y check-out de la estadia del cliente..xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Requerimientos</t>
   </si>
@@ -269,10 +269,7 @@
     <t>Realizar check-in y check-out de la estadia del cliente.</t>
   </si>
   <si>
-    <t>El sistema debe realizar un check-in cuando un cliente se registre y un check-out cuando salga del Hostal. Además de almacenar el nombre,rut, dirección, metodo de pago del cliente, además de si necesita alguna dieta especial, o tiene alguna enfermedad o alergia que afecte su estadia en la Hostal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema debe realizar un check-in cuando un cliente se registre y un check-out cuando salga del Hostal. </t>
+    <t>El sistema debe realizar un check-in cuando un cliente se registre y un check-out cuando salga del Hostal, sincronizando los datos con los sistemas donde la hostal se anuncia.  Además de almacenar el nombre,rut, dirección, metodo de pago del cliente, además de si necesita alguna dieta especial, o tiene alguna enfermedad o alergia que afecte su estadia en la Hostal.</t>
   </si>
 </sst>
 </file>
@@ -474,6 +471,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -492,7 +490,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,7 +773,7 @@
   <dimension ref="B3:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,79 +803,77 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">

--- a/análisis/Requerimientos/Funcionales/RF05_Realizar check-in y check-out de la estadia del cliente..xlsx
+++ b/análisis/Requerimientos/Funcionales/RF05_Realizar check-in y check-out de la estadia del cliente..xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\synchostel\análisis\Requerimientos\Funcionales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SyncHostel\synchostel\análisis\Requerimientos\Funcionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
@@ -466,11 +466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -489,6 +484,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +777,7 @@
   <dimension ref="B3:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B5" sqref="B5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,80 +804,80 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
